--- a/Code/Results/Cases/Case_2_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7303572772190705</v>
+        <v>0.2498276264660149</v>
       </c>
       <c r="C2">
-        <v>0.1038340981869652</v>
+        <v>0.03160055733154365</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4402036410497701</v>
+        <v>0.495341007136858</v>
       </c>
       <c r="F2">
-        <v>1.439538828735579</v>
+        <v>2.177157614419173</v>
       </c>
       <c r="G2">
-        <v>0.0008067831814568118</v>
+        <v>0.002439468186846574</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.244304037029476</v>
+        <v>0.5704123665821079</v>
       </c>
       <c r="J2">
-        <v>0.02556408077981498</v>
+        <v>0.0495201053083596</v>
       </c>
       <c r="K2">
-        <v>0.7754285120683591</v>
+        <v>0.2501965568839637</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6240644737722718</v>
+        <v>0.4114831580304923</v>
       </c>
       <c r="N2">
-        <v>0.7585698498878202</v>
+        <v>1.553447452456883</v>
       </c>
       <c r="O2">
-        <v>1.208625845217981</v>
+        <v>2.588490551675477</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6356841720118496</v>
+        <v>0.2211950567261738</v>
       </c>
       <c r="C3">
-        <v>0.09127227276721328</v>
+        <v>0.02770956227770682</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.393720513121302</v>
+        <v>0.4859447645738868</v>
       </c>
       <c r="F3">
-        <v>1.33425812172203</v>
+        <v>2.165079812083405</v>
       </c>
       <c r="G3">
-        <v>0.0008099144362814802</v>
+        <v>0.002441512221929623</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2493857584378887</v>
+        <v>0.5758158946234104</v>
       </c>
       <c r="J3">
-        <v>0.02610739910973425</v>
+        <v>0.04977538768123857</v>
       </c>
       <c r="K3">
-        <v>0.6757428971147448</v>
+        <v>0.2198446522830579</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5451737841023103</v>
+        <v>0.3912740604080369</v>
       </c>
       <c r="N3">
-        <v>0.7947979098063822</v>
+        <v>1.569116659481365</v>
       </c>
       <c r="O3">
-        <v>1.2029090833921</v>
+        <v>2.606388713964037</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5775849862404812</v>
+        <v>0.2036119042027735</v>
       </c>
       <c r="C4">
-        <v>0.08356239220312034</v>
+        <v>0.02530892200260837</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3656355066068429</v>
+        <v>0.4804096852856716</v>
       </c>
       <c r="F4">
-        <v>1.271834579674689</v>
+        <v>2.158814390840405</v>
       </c>
       <c r="G4">
-        <v>0.0008119002611602324</v>
+        <v>0.002442834231795221</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2530234036963535</v>
+        <v>0.5794128013568454</v>
       </c>
       <c r="J4">
-        <v>0.02645744075482526</v>
+        <v>0.04994204892958987</v>
       </c>
       <c r="K4">
-        <v>0.614560737103929</v>
+        <v>0.2011851017825279</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4970973093412141</v>
+        <v>0.3790354067799555</v>
       </c>
       <c r="N4">
-        <v>0.8180169657164456</v>
+        <v>1.579241844993279</v>
       </c>
       <c r="O4">
-        <v>1.201966038286031</v>
+        <v>2.618731963483526</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5539100599772269</v>
+        <v>0.196446407544812</v>
       </c>
       <c r="C5">
-        <v>0.08042008741615803</v>
+        <v>0.02432777136468189</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3542959838612845</v>
+        <v>0.4782130792092616</v>
       </c>
       <c r="F5">
-        <v>1.246920749059697</v>
+        <v>2.156550586709713</v>
       </c>
       <c r="G5">
-        <v>0.0008127256643705493</v>
+        <v>0.002443389849031538</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2546312786269311</v>
+        <v>0.5809487545506364</v>
       </c>
       <c r="J5">
-        <v>0.02660418603634174</v>
+        <v>0.05001246310872443</v>
       </c>
       <c r="K5">
-        <v>0.5896272947828294</v>
+        <v>0.1935757378393674</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4775864242894272</v>
+        <v>0.3740909829490207</v>
       </c>
       <c r="N5">
-        <v>0.8277184810490521</v>
+        <v>1.583494755514323</v>
       </c>
       <c r="O5">
-        <v>1.202200297369686</v>
+        <v>2.624102330813784</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5499787260375797</v>
+        <v>0.1952565821264614</v>
       </c>
       <c r="C6">
-        <v>0.07989824677511592</v>
+        <v>0.02416467972764735</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3524191655731599</v>
+        <v>0.4778518992579635</v>
       </c>
       <c r="F6">
-        <v>1.242814535845028</v>
+        <v>2.156192167008825</v>
       </c>
       <c r="G6">
-        <v>0.0008128637058042706</v>
+        <v>0.002443483130391438</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2549057142549174</v>
+        <v>0.5812080373221775</v>
       </c>
       <c r="J6">
-        <v>0.02662879966251097</v>
+        <v>0.05002430636270194</v>
       </c>
       <c r="K6">
-        <v>0.5854868296660811</v>
+        <v>0.1923118924588749</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4743512314144525</v>
+        <v>0.3732725644710229</v>
       </c>
       <c r="N6">
-        <v>0.8293437209816705</v>
+        <v>1.584208608103149</v>
       </c>
       <c r="O6">
-        <v>1.202275790771807</v>
+        <v>2.62501463493733</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.577265702590239</v>
+        <v>0.2035152681071679</v>
       </c>
       <c r="C7">
-        <v>0.08352001746982296</v>
+        <v>0.02529570143748572</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3654821631972993</v>
+        <v>0.4803798221604367</v>
       </c>
       <c r="F7">
-        <v>1.271496503692859</v>
+        <v>2.158782688423727</v>
       </c>
       <c r="G7">
-        <v>0.0008119113270626915</v>
+        <v>0.002442841656862926</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2530445858386585</v>
+        <v>0.5794332315875437</v>
       </c>
       <c r="J7">
-        <v>0.02645940325438634</v>
+        <v>0.04994298843783085</v>
       </c>
       <c r="K7">
-        <v>0.6142244905782093</v>
+        <v>0.2010825007208012</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4968338656229321</v>
+        <v>0.3789685504425222</v>
       </c>
       <c r="N7">
-        <v>0.8181468409470707</v>
+        <v>1.579298687731674</v>
       </c>
       <c r="O7">
-        <v>1.201966727775869</v>
+        <v>2.618803011908696</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.697703485928173</v>
+        <v>0.2399559218937952</v>
       </c>
       <c r="C8">
-        <v>0.09950134942654643</v>
+        <v>0.03026136004650937</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4240759020764813</v>
+        <v>0.492052607244247</v>
       </c>
       <c r="F8">
-        <v>1.402756543949749</v>
+        <v>2.172754490664531</v>
       </c>
       <c r="G8">
-        <v>0.0008078498801462274</v>
+        <v>0.002440159101442501</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2459459794444818</v>
+        <v>0.5722175707742032</v>
       </c>
       <c r="J8">
-        <v>0.02574798369694964</v>
+        <v>0.04960607126662886</v>
       </c>
       <c r="K8">
-        <v>0.7410469704313982</v>
+        <v>0.2397363157954118</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5967811360110744</v>
+        <v>0.4044799448189949</v>
       </c>
       <c r="N8">
-        <v>0.7708555160702169</v>
+        <v>1.558745557199124</v>
       </c>
       <c r="O8">
-        <v>1.206105293613987</v>
+        <v>2.59438087013605</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9344557941808205</v>
+        <v>0.3113789172515453</v>
       </c>
       <c r="C9">
-        <v>0.1309274063155499</v>
+        <v>0.03990624049919234</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5430440967566241</v>
+        <v>0.5167998296414353</v>
       </c>
       <c r="F9">
-        <v>1.679389351201962</v>
+        <v>2.209279702729887</v>
       </c>
       <c r="G9">
-        <v>0.0008003743531566705</v>
+        <v>0.00243542769968483</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2363493887191375</v>
+        <v>0.5602824866228353</v>
       </c>
       <c r="J9">
-        <v>0.02448490216360799</v>
+        <v>0.04902384916616853</v>
       </c>
       <c r="K9">
-        <v>0.9903195841100398</v>
+        <v>0.3153357970497837</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7961690546359605</v>
+        <v>0.4558480420676432</v>
       </c>
       <c r="N9">
-        <v>0.6861142852844697</v>
+        <v>1.5224401873856</v>
       </c>
       <c r="O9">
-        <v>1.235870275116824</v>
+        <v>2.557231651127097</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.109255029785572</v>
+        <v>0.3638142937143698</v>
       </c>
       <c r="C10">
-        <v>0.1541633100436286</v>
+        <v>0.04693498526765438</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6336022270484989</v>
+        <v>0.5361138400756289</v>
       </c>
       <c r="F10">
-        <v>1.896770600321418</v>
+        <v>2.241683164328151</v>
       </c>
       <c r="G10">
-        <v>0.0007951614930151176</v>
+        <v>0.00243227092562702</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2322535089732973</v>
+        <v>0.5528641946998292</v>
       </c>
       <c r="J10">
-        <v>0.02363957691136775</v>
+        <v>0.0486436292249941</v>
       </c>
       <c r="K10">
-        <v>1.1743808028898</v>
+        <v>0.3707413869959737</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9455000507990192</v>
+        <v>0.4943999989905663</v>
       </c>
       <c r="N10">
-        <v>0.6291095584874338</v>
+        <v>1.498201717990623</v>
       </c>
       <c r="O10">
-        <v>1.272818955195817</v>
+        <v>2.536490769865452</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.189083522350501</v>
+        <v>0.3876568086297141</v>
       </c>
       <c r="C11">
-        <v>0.1647887473555301</v>
+        <v>0.05011996108888184</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6756456933197086</v>
+        <v>0.5451463390763536</v>
       </c>
       <c r="F11">
-        <v>1.999309801305202</v>
+        <v>2.257634870087529</v>
       </c>
       <c r="G11">
-        <v>0.0007928463333757945</v>
+        <v>0.002430903508278237</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2311069946697017</v>
+        <v>0.5497827126273691</v>
       </c>
       <c r="J11">
-        <v>0.02327346855812529</v>
+        <v>0.0484809161665094</v>
       </c>
       <c r="K11">
-        <v>1.258452023467271</v>
+        <v>0.3959141129836894</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.014236893078923</v>
+        <v>0.5121136901543295</v>
       </c>
       <c r="N11">
-        <v>0.6044072443325046</v>
+        <v>1.487703147732876</v>
       </c>
       <c r="O11">
-        <v>1.293348064414062</v>
+        <v>2.528479009195252</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.219367820132504</v>
+        <v>0.3966834376075212</v>
       </c>
       <c r="C12">
-        <v>0.1688223059792904</v>
+        <v>0.05132421382975849</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6917028615432343</v>
+        <v>0.5486021124177967</v>
       </c>
       <c r="F12">
-        <v>2.038715292100747</v>
+        <v>2.263849523063953</v>
       </c>
       <c r="G12">
-        <v>0.0007919773454415099</v>
+        <v>0.002430395518921069</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2307826284601688</v>
+        <v>0.5486579979159494</v>
       </c>
       <c r="J12">
-        <v>0.02313752931115864</v>
+        <v>0.04842077024235891</v>
       </c>
       <c r="K12">
-        <v>1.290348560453765</v>
+        <v>0.4054414652866853</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.040397984101546</v>
+        <v>0.5188465726539278</v>
       </c>
       <c r="N12">
-        <v>0.5952380449999524</v>
+        <v>1.483803471174067</v>
       </c>
       <c r="O12">
-        <v>1.301696797327111</v>
+        <v>2.525649908286027</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.212842939148089</v>
+        <v>0.3947394889169686</v>
       </c>
       <c r="C13">
-        <v>0.1679531317262501</v>
+        <v>0.05106493841991266</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6882383656670044</v>
+        <v>0.547856278314157</v>
       </c>
       <c r="F13">
-        <v>2.030202138118526</v>
+        <v>2.262503345044365</v>
       </c>
       <c r="G13">
-        <v>0.0007921641605985583</v>
+        <v>0.002430504487584946</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2308474915243437</v>
+        <v>0.5488983492099209</v>
       </c>
       <c r="J13">
-        <v>0.02316668548693634</v>
+        <v>0.04843365843020386</v>
       </c>
       <c r="K13">
-        <v>1.28347618208619</v>
+        <v>0.4033898100094575</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.034757587078218</v>
+        <v>0.5173954139039694</v>
       </c>
       <c r="N13">
-        <v>0.5972044298724555</v>
+        <v>1.48463995990865</v>
       </c>
       <c r="O13">
-        <v>1.299872522141243</v>
+        <v>2.526250096590019</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.191573866813854</v>
+        <v>0.3883994779955913</v>
       </c>
       <c r="C14">
-        <v>0.165120379577786</v>
+        <v>0.05021907256239899</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6769639105224172</v>
+        <v>0.5454299393720703</v>
       </c>
       <c r="F14">
-        <v>2.002539862564305</v>
+        <v>2.258142664813633</v>
       </c>
       <c r="G14">
-        <v>0.0007927746888031481</v>
+        <v>0.002430861519070922</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2310780683125806</v>
+        <v>0.5496893362753354</v>
       </c>
       <c r="J14">
-        <v>0.02326223040271636</v>
+        <v>0.04847593848832155</v>
       </c>
       <c r="K14">
-        <v>1.261074887034937</v>
+        <v>0.3966980371754971</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.016386440770411</v>
+        <v>0.5126671069842388</v>
       </c>
       <c r="N14">
-        <v>0.6036491313757946</v>
+        <v>1.487380797573815</v>
       </c>
       <c r="O14">
-        <v>1.294023162554254</v>
+        <v>2.528242152711101</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.178553421202935</v>
+        <v>0.3845157614343293</v>
       </c>
       <c r="C15">
-        <v>0.1633865926907134</v>
+        <v>0.04970071598521031</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6700761631889236</v>
+        <v>0.5439483395545466</v>
       </c>
       <c r="F15">
-        <v>1.985672527355518</v>
+        <v>2.255494291236474</v>
       </c>
       <c r="G15">
-        <v>0.0007931496480754721</v>
+        <v>0.002431081489100648</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2312338089075325</v>
+        <v>0.5501793318962918</v>
       </c>
       <c r="J15">
-        <v>0.02332110722912439</v>
+        <v>0.04850202755793198</v>
       </c>
       <c r="K15">
-        <v>1.247361696009875</v>
+        <v>0.3925984661887014</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.005151265152556</v>
+        <v>0.5097741428565072</v>
       </c>
       <c r="N15">
-        <v>0.6076210473419277</v>
+        <v>1.489069525723309</v>
       </c>
       <c r="O15">
-        <v>1.290516342601677</v>
+        <v>2.52948901584594</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.104045171815585</v>
+        <v>0.3622558741229795</v>
       </c>
       <c r="C16">
-        <v>0.1534701915165329</v>
+        <v>0.04672658593061385</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6308728482765247</v>
+        <v>0.5355284977012076</v>
       </c>
       <c r="F16">
-        <v>1.890147177648544</v>
+        <v>2.240665048447767</v>
       </c>
       <c r="G16">
-        <v>0.0007953138940320349</v>
+        <v>0.002432361666414394</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2323434240832754</v>
+        <v>0.5530714774161254</v>
       </c>
       <c r="J16">
-        <v>0.02366387788081603</v>
+        <v>0.04865446883003699</v>
       </c>
       <c r="K16">
-        <v>1.168894379765362</v>
+        <v>0.3690956145704831</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9410254942715355</v>
+        <v>0.4932458923571303</v>
       </c>
       <c r="N16">
-        <v>0.6307493444274588</v>
+        <v>1.498898444159622</v>
       </c>
       <c r="O16">
-        <v>1.271555541209011</v>
+        <v>2.537043007664892</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.058423565770909</v>
+        <v>0.3485970907538558</v>
       </c>
       <c r="C17">
-        <v>0.147402327082844</v>
+        <v>0.04489883979380238</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6070499151925759</v>
+        <v>0.5304262656850511</v>
       </c>
       <c r="F17">
-        <v>1.832515847301195</v>
+        <v>2.23187794963853</v>
       </c>
       <c r="G17">
-        <v>0.0007966557270571504</v>
+        <v>0.002433164555925076</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2332123597001647</v>
+        <v>0.5549208105705041</v>
       </c>
       <c r="J17">
-        <v>0.02387891089937355</v>
+        <v>0.04875060919838248</v>
       </c>
       <c r="K17">
-        <v>1.120852491638146</v>
+        <v>0.3546689563291636</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.90190379233659</v>
+        <v>0.4831513027131251</v>
       </c>
       <c r="N17">
-        <v>0.6452583891037431</v>
+        <v>1.505063327756815</v>
       </c>
       <c r="O17">
-        <v>1.260904175821963</v>
+        <v>2.542041767372254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.032211885952762</v>
+        <v>0.3407399512793745</v>
       </c>
       <c r="C18">
-        <v>0.1439173298344798</v>
+        <v>0.04384640048323263</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.59342650663244</v>
+        <v>0.5275147993502856</v>
       </c>
       <c r="F18">
-        <v>1.799708245723878</v>
+        <v>2.226937852430524</v>
       </c>
       <c r="G18">
-        <v>0.0007974328265835107</v>
+        <v>0.002433632817698999</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2337791818045361</v>
+        <v>0.5560120880587895</v>
       </c>
       <c r="J18">
-        <v>0.02400432437071398</v>
+        <v>0.04880687170175158</v>
       </c>
       <c r="K18">
-        <v>1.093251407752803</v>
+        <v>0.346368182396958</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8794767994395087</v>
+        <v>0.4773617625156561</v>
       </c>
       <c r="N18">
-        <v>0.6537188029384229</v>
+        <v>1.508658866821294</v>
       </c>
       <c r="O18">
-        <v>1.255125495703936</v>
+        <v>2.545050890079096</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.023341685458888</v>
+        <v>0.3380795074293985</v>
       </c>
       <c r="C19">
-        <v>0.1427381839582864</v>
+        <v>0.04348986322600012</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5888269909504942</v>
+        <v>0.5265330143273275</v>
       </c>
       <c r="F19">
-        <v>1.788657126455831</v>
+        <v>2.225284804157525</v>
       </c>
       <c r="G19">
-        <v>0.000797696862640371</v>
+        <v>0.002433792474035123</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2339824130296542</v>
+        <v>0.5563863137704921</v>
       </c>
       <c r="J19">
-        <v>0.02404708331841743</v>
+        <v>0.04882608710123826</v>
       </c>
       <c r="K19">
-        <v>1.083911198730306</v>
+        <v>0.3435571922130976</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8718957760778139</v>
+        <v>0.4754043823994607</v>
       </c>
       <c r="N19">
-        <v>0.656602895983518</v>
+        <v>1.509884782994206</v>
       </c>
       <c r="O19">
-        <v>1.253227484588834</v>
+        <v>2.546092733474524</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.063277025771214</v>
+        <v>0.350051195348243</v>
       </c>
       <c r="C20">
-        <v>0.1480477222158072</v>
+        <v>0.04509352767341568</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6095776401107003</v>
+        <v>0.5309670061819673</v>
       </c>
       <c r="F20">
-        <v>1.838615211056592</v>
+        <v>2.232801552330869</v>
       </c>
       <c r="G20">
-        <v>0.0007965123393916377</v>
+        <v>0.002433078418622383</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2331128749581559</v>
+        <v>0.5547210902735387</v>
       </c>
       <c r="J20">
-        <v>0.023855840660433</v>
+        <v>0.04874027503710643</v>
       </c>
       <c r="K20">
-        <v>1.125963307989224</v>
+        <v>0.35620500662219</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9060605123989305</v>
+        <v>0.4842241726836889</v>
       </c>
       <c r="N20">
-        <v>0.6437018962566512</v>
+        <v>1.504401925417563</v>
       </c>
       <c r="O20">
-        <v>1.26200176648365</v>
+        <v>2.541495774920321</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.197819531821068</v>
+        <v>0.3902617514470705</v>
       </c>
       <c r="C21">
-        <v>0.165952141274559</v>
+        <v>0.05046757381421685</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6802716751566038</v>
+        <v>0.5461416548465792</v>
       </c>
       <c r="F21">
-        <v>2.010648882076438</v>
+        <v>2.259418778255167</v>
       </c>
       <c r="G21">
-        <v>0.0007925951556074788</v>
+        <v>0.002430756383983227</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2310073067193272</v>
+        <v>0.5494558593803625</v>
       </c>
       <c r="J21">
-        <v>0.0232340929327659</v>
+        <v>0.04846347994793732</v>
       </c>
       <c r="K21">
-        <v>1.267652949423479</v>
+        <v>0.3986637128982693</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.02177877634054</v>
+        <v>0.5140552463224424</v>
       </c>
       <c r="N21">
-        <v>0.6017510762965852</v>
+        <v>1.486573686831891</v>
       </c>
       <c r="O21">
-        <v>1.295725331165499</v>
+        <v>2.527651479099063</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.286076580812221</v>
+        <v>0.4165297082394375</v>
       </c>
       <c r="C22">
-        <v>0.1777126693172733</v>
+        <v>0.05396914717950096</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7272757415453697</v>
+        <v>0.5562652452059922</v>
       </c>
       <c r="F22">
-        <v>2.126467363033584</v>
+        <v>2.277829354873134</v>
       </c>
       <c r="G22">
-        <v>0.0007900798180637788</v>
+        <v>0.002429296030628084</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2302746053204068</v>
+        <v>0.5462605695099967</v>
       </c>
       <c r="J22">
-        <v>0.02284349476073011</v>
+        <v>0.0482911446405847</v>
       </c>
       <c r="K22">
-        <v>1.360614495983469</v>
+        <v>0.42638349348681</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.09818478659971</v>
+        <v>0.5336977182378959</v>
       </c>
       <c r="N22">
-        <v>0.5754165081527987</v>
+        <v>1.475364346244845</v>
       </c>
       <c r="O22">
-        <v>1.321136447878331</v>
+        <v>2.519797086657292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.238938761284174</v>
+        <v>0.4025112619822551</v>
       </c>
       <c r="C23">
-        <v>0.1714297614043261</v>
+        <v>0.0521012817728348</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7021104498410295</v>
+        <v>0.550843264131359</v>
       </c>
       <c r="F23">
-        <v>2.064325307532229</v>
+        <v>2.267910467559531</v>
       </c>
       <c r="G23">
-        <v>0.0007914183324279854</v>
+        <v>0.002430070226750367</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2306044494418344</v>
+        <v>0.5479434535562646</v>
       </c>
       <c r="J23">
-        <v>0.02305050700649858</v>
+        <v>0.04838234076625803</v>
       </c>
       <c r="K23">
-        <v>1.310962249687975</v>
+        <v>0.4115917755200087</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.057328672992483</v>
+        <v>0.5232008712082532</v>
       </c>
       <c r="N23">
-        <v>0.5893698295102752</v>
+        <v>1.48130648754805</v>
       </c>
       <c r="O23">
-        <v>1.307251784534571</v>
+        <v>2.523879871079345</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.061082724972181</v>
+        <v>0.3493938087122785</v>
       </c>
       <c r="C24">
-        <v>0.1477559283257079</v>
+        <v>0.04500551440095535</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6084346302554167</v>
+        <v>0.5307224692593451</v>
       </c>
       <c r="F24">
-        <v>1.835856678914368</v>
+        <v>2.232383643536238</v>
       </c>
       <c r="G24">
-        <v>0.0007965771471750533</v>
+        <v>0.002433117340504283</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2331576430156908</v>
+        <v>0.5548112963810503</v>
       </c>
       <c r="J24">
-        <v>0.02386626514934154</v>
+        <v>0.04874494402718454</v>
       </c>
       <c r="K24">
-        <v>1.123652650106806</v>
+        <v>0.3555105791061521</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9041810592648787</v>
+        <v>0.4837390846247729</v>
       </c>
       <c r="N24">
-        <v>0.6444052167226122</v>
+        <v>1.504700785726747</v>
       </c>
       <c r="O24">
-        <v>1.26150447433335</v>
+        <v>2.541742196757596</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8702961867024896</v>
+        <v>0.2920627771524664</v>
       </c>
       <c r="C25">
-        <v>0.1224072249022328</v>
+        <v>0.03730705825896052</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5103580257784941</v>
+        <v>0.5099062328966539</v>
       </c>
       <c r="F25">
-        <v>1.602254215823805</v>
+        <v>2.1984211292541</v>
       </c>
       <c r="G25">
-        <v>0.0008023462048401954</v>
+        <v>0.002436651354954738</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2384508567629311</v>
+        <v>0.5632741122278517</v>
       </c>
       <c r="J25">
-        <v>0.02481224732318044</v>
+        <v>0.04917298583252894</v>
       </c>
       <c r="K25">
-        <v>0.9227666724882226</v>
+        <v>0.2949071639896772</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7417895809819228</v>
+        <v>0.4418086634435383</v>
       </c>
       <c r="N25">
-        <v>0.7081451515315518</v>
+        <v>1.53183392156012</v>
       </c>
       <c r="O25">
-        <v>1.22531298344866</v>
+        <v>2.566131056362266</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_123/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_123/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2498276264660149</v>
+        <v>0.7303572772192126</v>
       </c>
       <c r="C2">
-        <v>0.03160055733154365</v>
+        <v>0.1038340981874342</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.495341007136858</v>
+        <v>0.4402036410497701</v>
       </c>
       <c r="F2">
-        <v>2.177157614419173</v>
+        <v>1.439538828735579</v>
       </c>
       <c r="G2">
-        <v>0.002439468186846574</v>
+        <v>0.0008067831813812439</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5704123665821079</v>
+        <v>0.2443040370294796</v>
       </c>
       <c r="J2">
-        <v>0.0495201053083596</v>
+        <v>0.02556408077985317</v>
       </c>
       <c r="K2">
-        <v>0.2501965568839637</v>
+        <v>0.7754285120683591</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4114831580304923</v>
+        <v>0.624064473772286</v>
       </c>
       <c r="N2">
-        <v>1.553447452456883</v>
+        <v>0.7585698498878202</v>
       </c>
       <c r="O2">
-        <v>2.588490551675477</v>
+        <v>1.208625845217981</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2211950567261738</v>
+        <v>0.6356841720118496</v>
       </c>
       <c r="C3">
-        <v>0.02770956227770682</v>
+        <v>0.09127227276691485</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4859447645738868</v>
+        <v>0.3937205131212664</v>
       </c>
       <c r="F3">
-        <v>2.165079812083405</v>
+        <v>1.334258121722044</v>
       </c>
       <c r="G3">
-        <v>0.002441512221929623</v>
+        <v>0.000809914436206468</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5758158946234104</v>
+        <v>0.2493857584378851</v>
       </c>
       <c r="J3">
-        <v>0.04977538768123857</v>
+        <v>0.02610739910960724</v>
       </c>
       <c r="K3">
-        <v>0.2198446522830579</v>
+        <v>0.6757428971148727</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3912740604080369</v>
+        <v>0.5451737841023103</v>
       </c>
       <c r="N3">
-        <v>1.569116659481365</v>
+        <v>0.7947979098063751</v>
       </c>
       <c r="O3">
-        <v>2.606388713964037</v>
+        <v>1.202909083392072</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2036119042027735</v>
+        <v>0.5775849862404812</v>
       </c>
       <c r="C4">
-        <v>0.02530892200260837</v>
+        <v>0.08356239220312034</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4804096852856716</v>
+        <v>0.3656355066068357</v>
       </c>
       <c r="F4">
-        <v>2.158814390840405</v>
+        <v>1.271834579674675</v>
       </c>
       <c r="G4">
-        <v>0.002442834231795221</v>
+        <v>0.000811900261176969</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5794128013568454</v>
+        <v>0.2530234036963499</v>
       </c>
       <c r="J4">
-        <v>0.04994204892958987</v>
+        <v>0.02645744075489542</v>
       </c>
       <c r="K4">
-        <v>0.2011851017825279</v>
+        <v>0.6145607371039432</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3790354067799555</v>
+        <v>0.4970973093412141</v>
       </c>
       <c r="N4">
-        <v>1.579241844993279</v>
+        <v>0.8180169657163709</v>
       </c>
       <c r="O4">
-        <v>2.618731963483526</v>
+        <v>1.201966038285988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.196446407544812</v>
+        <v>0.5539100599771984</v>
       </c>
       <c r="C5">
-        <v>0.02432777136468189</v>
+        <v>0.08042008741610118</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4782130792092616</v>
+        <v>0.3542959838612774</v>
       </c>
       <c r="F5">
-        <v>2.156550586709713</v>
+        <v>1.246920749059726</v>
       </c>
       <c r="G5">
-        <v>0.002443389849031538</v>
+        <v>0.0008127256643257886</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5809487545506364</v>
+        <v>0.2546312786269347</v>
       </c>
       <c r="J5">
-        <v>0.05001246310872443</v>
+        <v>0.02660418603637904</v>
       </c>
       <c r="K5">
-        <v>0.1935757378393674</v>
+        <v>0.5896272947828436</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3740909829490207</v>
+        <v>0.4775864242893988</v>
       </c>
       <c r="N5">
-        <v>1.583494755514323</v>
+        <v>0.827718481049061</v>
       </c>
       <c r="O5">
-        <v>2.624102330813784</v>
+        <v>1.202200297369714</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1952565821264614</v>
+        <v>0.5499787260375513</v>
       </c>
       <c r="C6">
-        <v>0.02416467972764735</v>
+        <v>0.07989824677514434</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4778518992579635</v>
+        <v>0.3524191655731812</v>
       </c>
       <c r="F6">
-        <v>2.156192167008825</v>
+        <v>1.242814535845028</v>
       </c>
       <c r="G6">
-        <v>0.002443483130391438</v>
+        <v>0.0008128637057448542</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5812080373221775</v>
+        <v>0.2549057142549138</v>
       </c>
       <c r="J6">
-        <v>0.05002430636270194</v>
+        <v>0.02662879966252785</v>
       </c>
       <c r="K6">
-        <v>0.1923118924588749</v>
+        <v>0.5854868296659532</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3732725644710229</v>
+        <v>0.4743512314144382</v>
       </c>
       <c r="N6">
-        <v>1.584208608103149</v>
+        <v>0.829343720981722</v>
       </c>
       <c r="O6">
-        <v>2.62501463493733</v>
+        <v>1.202275790771793</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2035152681071679</v>
+        <v>0.5772657025902106</v>
       </c>
       <c r="C7">
-        <v>0.02529570143748572</v>
+        <v>0.0835200174698798</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4803798221604367</v>
+        <v>0.3654821631973135</v>
       </c>
       <c r="F7">
-        <v>2.158782688423727</v>
+        <v>1.271496503692859</v>
       </c>
       <c r="G7">
-        <v>0.002442841656862926</v>
+        <v>0.0008119113270627557</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5794332315875437</v>
+        <v>0.2530445858386585</v>
       </c>
       <c r="J7">
-        <v>0.04994298843783085</v>
+        <v>0.02645940325442275</v>
       </c>
       <c r="K7">
-        <v>0.2010825007208012</v>
+        <v>0.6142244905782661</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3789685504425222</v>
+        <v>0.496833865622925</v>
       </c>
       <c r="N7">
-        <v>1.579298687731674</v>
+        <v>0.818146840947076</v>
       </c>
       <c r="O7">
-        <v>2.618803011908696</v>
+        <v>1.20196672777594</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2399559218937952</v>
+        <v>0.6977034859282583</v>
       </c>
       <c r="C8">
-        <v>0.03026136004650937</v>
+        <v>0.09950134942656064</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.492052607244247</v>
+        <v>0.4240759020764742</v>
       </c>
       <c r="F8">
-        <v>2.172754490664531</v>
+        <v>1.402756543949764</v>
       </c>
       <c r="G8">
-        <v>0.002440159101442501</v>
+        <v>0.0008078498800874916</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5722175707742032</v>
+        <v>0.2459459794444818</v>
       </c>
       <c r="J8">
-        <v>0.04960607126662886</v>
+        <v>0.02574798369697717</v>
       </c>
       <c r="K8">
-        <v>0.2397363157954118</v>
+        <v>0.7410469704312845</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4044799448189949</v>
+        <v>0.5967811360110673</v>
       </c>
       <c r="N8">
-        <v>1.558745557199124</v>
+        <v>0.7708555160702133</v>
       </c>
       <c r="O8">
-        <v>2.59438087013605</v>
+        <v>1.206105293613987</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3113789172515453</v>
+        <v>0.9344557941807921</v>
       </c>
       <c r="C9">
-        <v>0.03990624049919234</v>
+        <v>0.1309274063155499</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5167998296414353</v>
+        <v>0.543044096756617</v>
       </c>
       <c r="F9">
-        <v>2.209279702729887</v>
+        <v>1.679389351201976</v>
       </c>
       <c r="G9">
-        <v>0.00243542769968483</v>
+        <v>0.0008003743531550052</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5602824866228353</v>
+        <v>0.2363493887191588</v>
       </c>
       <c r="J9">
-        <v>0.04902384916616853</v>
+        <v>0.02448490216354848</v>
       </c>
       <c r="K9">
-        <v>0.3153357970497837</v>
+        <v>0.9903195841100683</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4558480420676432</v>
+        <v>0.7961690546359534</v>
       </c>
       <c r="N9">
-        <v>1.5224401873856</v>
+        <v>0.6861142852844129</v>
       </c>
       <c r="O9">
-        <v>2.557231651127097</v>
+        <v>1.235870275116895</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3638142937143698</v>
+        <v>1.109255029785487</v>
       </c>
       <c r="C10">
-        <v>0.04693498526765438</v>
+        <v>0.1541633100436286</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5361138400756289</v>
+        <v>0.6336022270485273</v>
       </c>
       <c r="F10">
-        <v>2.241683164328151</v>
+        <v>1.896770600321403</v>
       </c>
       <c r="G10">
-        <v>0.00243227092562702</v>
+        <v>0.0007951614930930152</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5528641946998292</v>
+        <v>0.2322535089732938</v>
       </c>
       <c r="J10">
-        <v>0.0486436292249941</v>
+        <v>0.02363957691145657</v>
       </c>
       <c r="K10">
-        <v>0.3707413869959737</v>
+        <v>1.174380802889829</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4943999989905663</v>
+        <v>0.945500050799005</v>
       </c>
       <c r="N10">
-        <v>1.498201717990623</v>
+        <v>0.6291095584874125</v>
       </c>
       <c r="O10">
-        <v>2.536490769865452</v>
+        <v>1.272818955195788</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3876568086297141</v>
+        <v>1.18908352235033</v>
       </c>
       <c r="C11">
-        <v>0.05011996108888184</v>
+        <v>0.1647887473555443</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5451463390763536</v>
+        <v>0.6756456933196802</v>
       </c>
       <c r="F11">
-        <v>2.257634870087529</v>
+        <v>1.999309801305202</v>
       </c>
       <c r="G11">
-        <v>0.002430903508278237</v>
+        <v>0.000792846333376247</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5497827126273691</v>
+        <v>0.2311069946696875</v>
       </c>
       <c r="J11">
-        <v>0.0484809161665094</v>
+        <v>0.02327346855813772</v>
       </c>
       <c r="K11">
-        <v>0.3959141129836894</v>
+        <v>1.258452023467299</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5121136901543295</v>
+        <v>1.014236893078909</v>
       </c>
       <c r="N11">
-        <v>1.487703147732876</v>
+        <v>0.6044072443325046</v>
       </c>
       <c r="O11">
-        <v>2.528479009195252</v>
+        <v>1.29334806441409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3966834376075212</v>
+        <v>1.219367820132533</v>
       </c>
       <c r="C12">
-        <v>0.05132421382975849</v>
+        <v>0.1688223059791056</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5486021124177967</v>
+        <v>0.6917028615432343</v>
       </c>
       <c r="F12">
-        <v>2.263849523063953</v>
+        <v>2.038715292100747</v>
       </c>
       <c r="G12">
-        <v>0.002430395518921069</v>
+        <v>0.000791977345441732</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5486579979159494</v>
+        <v>0.230782628460144</v>
       </c>
       <c r="J12">
-        <v>0.04842077024235891</v>
+        <v>0.0231375293111622</v>
       </c>
       <c r="K12">
-        <v>0.4054414652866853</v>
+        <v>1.29034856045368</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5188465726539278</v>
+        <v>1.040397984101531</v>
       </c>
       <c r="N12">
-        <v>1.483803471174067</v>
+        <v>0.5952380449999417</v>
       </c>
       <c r="O12">
-        <v>2.525649908286027</v>
+        <v>1.301696797327082</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3947394889169686</v>
+        <v>1.212842939148118</v>
       </c>
       <c r="C13">
-        <v>0.05106493841991266</v>
+        <v>0.1679531317263212</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.547856278314157</v>
+        <v>0.6882383656670328</v>
       </c>
       <c r="F13">
-        <v>2.262503345044365</v>
+        <v>2.03020213811854</v>
       </c>
       <c r="G13">
-        <v>0.002430504487584946</v>
+        <v>0.0007921641605985424</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5488983492099209</v>
+        <v>0.2308474915243544</v>
       </c>
       <c r="J13">
-        <v>0.04843365843020386</v>
+        <v>0.02316668548688128</v>
       </c>
       <c r="K13">
-        <v>0.4033898100094575</v>
+        <v>1.283476182086162</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5173954139039694</v>
+        <v>1.034757587078218</v>
       </c>
       <c r="N13">
-        <v>1.48463995990865</v>
+        <v>0.5972044298724537</v>
       </c>
       <c r="O13">
-        <v>2.526250096590019</v>
+        <v>1.299872522141186</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3883994779955913</v>
+        <v>1.191573866813627</v>
       </c>
       <c r="C14">
-        <v>0.05021907256239899</v>
+        <v>0.165120379577786</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5454299393720703</v>
+        <v>0.6769639105223746</v>
       </c>
       <c r="F14">
-        <v>2.258142664813633</v>
+        <v>2.002539862564305</v>
       </c>
       <c r="G14">
-        <v>0.002430861519070922</v>
+        <v>0.0007927746888036174</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5496893362753354</v>
+        <v>0.2310780683125806</v>
       </c>
       <c r="J14">
-        <v>0.04847593848832155</v>
+        <v>0.0232622304027732</v>
       </c>
       <c r="K14">
-        <v>0.3966980371754971</v>
+        <v>1.261074887035051</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5126671069842388</v>
+        <v>1.016386440770404</v>
       </c>
       <c r="N14">
-        <v>1.487380797573815</v>
+        <v>0.6036491313757981</v>
       </c>
       <c r="O14">
-        <v>2.528242152711101</v>
+        <v>1.294023162554254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3845157614343293</v>
+        <v>1.178553421202935</v>
       </c>
       <c r="C15">
-        <v>0.04970071598521031</v>
+        <v>0.1633865926906424</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5439483395545466</v>
+        <v>0.6700761631888952</v>
       </c>
       <c r="F15">
-        <v>2.255494291236474</v>
+        <v>1.985672527355533</v>
       </c>
       <c r="G15">
-        <v>0.002431081489100648</v>
+        <v>0.0007931496480740874</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5501793318962918</v>
+        <v>0.2312338089075467</v>
       </c>
       <c r="J15">
-        <v>0.04850202755793198</v>
+        <v>0.02332110722912262</v>
       </c>
       <c r="K15">
-        <v>0.3925984661887014</v>
+        <v>1.247361696009847</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5097741428565072</v>
+        <v>1.005151265152548</v>
       </c>
       <c r="N15">
-        <v>1.489069525723309</v>
+        <v>0.6076210473419206</v>
       </c>
       <c r="O15">
-        <v>2.52948901584594</v>
+        <v>1.290516342601677</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3622558741229795</v>
+        <v>1.104045171815585</v>
       </c>
       <c r="C16">
-        <v>0.04672658593061385</v>
+        <v>0.153470191516675</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5355284977012076</v>
+        <v>0.6308728482765389</v>
       </c>
       <c r="F16">
-        <v>2.240665048447767</v>
+        <v>1.890147177648544</v>
       </c>
       <c r="G16">
-        <v>0.002432361666414394</v>
+        <v>0.0007953138940313688</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5530714774161254</v>
+        <v>0.2323434240832754</v>
       </c>
       <c r="J16">
-        <v>0.04865446883003699</v>
+        <v>0.02366387788081425</v>
       </c>
       <c r="K16">
-        <v>0.3690956145704831</v>
+        <v>1.168894379765391</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4932458923571303</v>
+        <v>0.9410254942715355</v>
       </c>
       <c r="N16">
-        <v>1.498898444159622</v>
+        <v>0.6307493444274517</v>
       </c>
       <c r="O16">
-        <v>2.537043007664892</v>
+        <v>1.271555541209011</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3485970907538558</v>
+        <v>1.058423565771022</v>
       </c>
       <c r="C17">
-        <v>0.04489883979380238</v>
+        <v>0.147402327082844</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5304262656850511</v>
+        <v>0.6070499151925617</v>
       </c>
       <c r="F17">
-        <v>2.23187794963853</v>
+        <v>1.832515847301167</v>
       </c>
       <c r="G17">
-        <v>0.002433164555925076</v>
+        <v>0.0007966557269981125</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5549208105705041</v>
+        <v>0.2332123597001647</v>
       </c>
       <c r="J17">
-        <v>0.04875060919838248</v>
+        <v>0.02387891089932204</v>
       </c>
       <c r="K17">
-        <v>0.3546689563291636</v>
+        <v>1.120852491638203</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4831513027131251</v>
+        <v>0.9019037923365687</v>
       </c>
       <c r="N17">
-        <v>1.505063327756815</v>
+        <v>0.645258389103736</v>
       </c>
       <c r="O17">
-        <v>2.542041767372254</v>
+        <v>1.26090417582202</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3407399512793745</v>
+        <v>1.032211885952677</v>
       </c>
       <c r="C18">
-        <v>0.04384640048323263</v>
+        <v>0.1439173298347356</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5275147993502856</v>
+        <v>0.59342650663244</v>
       </c>
       <c r="F18">
-        <v>2.226937852430524</v>
+        <v>1.799708245723878</v>
       </c>
       <c r="G18">
-        <v>0.002433632817698999</v>
+        <v>0.0007974328266996928</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5560120880587895</v>
+        <v>0.2337791818045361</v>
       </c>
       <c r="J18">
-        <v>0.04880687170175158</v>
+        <v>0.0240043243706598</v>
       </c>
       <c r="K18">
-        <v>0.346368182396958</v>
+        <v>1.093251407752774</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4773617625156561</v>
+        <v>0.8794767994395229</v>
       </c>
       <c r="N18">
-        <v>1.508658866821294</v>
+        <v>0.6537188029384229</v>
       </c>
       <c r="O18">
-        <v>2.545050890079096</v>
+        <v>1.25512549570395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3380795074293985</v>
+        <v>1.023341685458888</v>
       </c>
       <c r="C19">
-        <v>0.04348986322600012</v>
+        <v>0.1427381839583006</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5265330143273275</v>
+        <v>0.5888269909504942</v>
       </c>
       <c r="F19">
-        <v>2.225284804157525</v>
+        <v>1.788657126455846</v>
       </c>
       <c r="G19">
-        <v>0.002433792474035123</v>
+        <v>0.000797696862601391</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5563863137704921</v>
+        <v>0.2339824130296719</v>
       </c>
       <c r="J19">
-        <v>0.04882608710123826</v>
+        <v>0.02404708331840943</v>
       </c>
       <c r="K19">
-        <v>0.3435571922130976</v>
+        <v>1.083911198730306</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4754043823994607</v>
+        <v>0.8718957760778068</v>
       </c>
       <c r="N19">
-        <v>1.509884782994206</v>
+        <v>0.6566028959835748</v>
       </c>
       <c r="O19">
-        <v>2.546092733474524</v>
+        <v>1.253227484588848</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.350051195348243</v>
+        <v>1.063277025770958</v>
       </c>
       <c r="C20">
-        <v>0.04509352767341568</v>
+        <v>0.1480477222158072</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5309670061819673</v>
+        <v>0.609577640110686</v>
       </c>
       <c r="F20">
-        <v>2.232801552330869</v>
+        <v>1.838615211056606</v>
       </c>
       <c r="G20">
-        <v>0.002433078418622383</v>
+        <v>0.0007965123392751538</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5547210902735387</v>
+        <v>0.2331128749581595</v>
       </c>
       <c r="J20">
-        <v>0.04874027503710643</v>
+        <v>0.02385584066037261</v>
       </c>
       <c r="K20">
-        <v>0.35620500662219</v>
+        <v>1.125963307989167</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4842241726836889</v>
+        <v>0.9060605123989376</v>
       </c>
       <c r="N20">
-        <v>1.504401925417563</v>
+        <v>0.6437018962566459</v>
       </c>
       <c r="O20">
-        <v>2.541495774920321</v>
+        <v>1.262001766483706</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3902617514470705</v>
+        <v>1.19781953182104</v>
       </c>
       <c r="C21">
-        <v>0.05046757381421685</v>
+        <v>0.165952141274559</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5461416548465792</v>
+        <v>0.680271675156618</v>
       </c>
       <c r="F21">
-        <v>2.259418778255167</v>
+        <v>2.010648882076467</v>
       </c>
       <c r="G21">
-        <v>0.002430756383983227</v>
+        <v>0.0007925951556279431</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5494558593803625</v>
+        <v>0.2310073067193237</v>
       </c>
       <c r="J21">
-        <v>0.04846347994793732</v>
+        <v>0.02323409293265222</v>
       </c>
       <c r="K21">
-        <v>0.3986637128982693</v>
+        <v>1.267652949423479</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5140552463224424</v>
+        <v>1.021778776340533</v>
       </c>
       <c r="N21">
-        <v>1.486573686831891</v>
+        <v>0.6017510762965745</v>
       </c>
       <c r="O21">
-        <v>2.527651479099063</v>
+        <v>1.295725331165471</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4165297082394375</v>
+        <v>1.286076580812107</v>
       </c>
       <c r="C22">
-        <v>0.05396914717950096</v>
+        <v>0.1777126693171738</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5562652452059922</v>
+        <v>0.7272757415453697</v>
       </c>
       <c r="F22">
-        <v>2.277829354873134</v>
+        <v>2.126467363033584</v>
       </c>
       <c r="G22">
-        <v>0.002429296030628084</v>
+        <v>0.0007900798180635604</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5462605695099967</v>
+        <v>0.2302746053204068</v>
       </c>
       <c r="J22">
-        <v>0.0482911446405847</v>
+        <v>0.02284349476061287</v>
       </c>
       <c r="K22">
-        <v>0.42638349348681</v>
+        <v>1.360614495983612</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5336977182378959</v>
+        <v>1.098184786599724</v>
       </c>
       <c r="N22">
-        <v>1.475364346244845</v>
+        <v>0.5754165081528058</v>
       </c>
       <c r="O22">
-        <v>2.519797086657292</v>
+        <v>1.321136447878359</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4025112619822551</v>
+        <v>1.238938761284288</v>
       </c>
       <c r="C23">
-        <v>0.0521012817728348</v>
+        <v>0.1714297614046245</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.550843264131359</v>
+        <v>0.7021104498410295</v>
       </c>
       <c r="F23">
-        <v>2.267910467559531</v>
+        <v>2.064325307532229</v>
       </c>
       <c r="G23">
-        <v>0.002430070226750367</v>
+        <v>0.0007914183323693173</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5479434535562646</v>
+        <v>0.230604449441838</v>
       </c>
       <c r="J23">
-        <v>0.04838234076625803</v>
+        <v>0.02305050700666023</v>
       </c>
       <c r="K23">
-        <v>0.4115917755200087</v>
+        <v>1.310962249687975</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5232008712082532</v>
+        <v>1.057328672992455</v>
       </c>
       <c r="N23">
-        <v>1.48130648754805</v>
+        <v>0.5893698295102698</v>
       </c>
       <c r="O23">
-        <v>2.523879871079345</v>
+        <v>1.307251784534571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3493938087122785</v>
+        <v>1.061082724972152</v>
       </c>
       <c r="C24">
-        <v>0.04500551440095535</v>
+        <v>0.1477559283259922</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5307224692593451</v>
+        <v>0.6084346302554451</v>
       </c>
       <c r="F24">
-        <v>2.232383643536238</v>
+        <v>1.835856678914368</v>
       </c>
       <c r="G24">
-        <v>0.002433117340504283</v>
+        <v>0.0007965771472329732</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5548112963810503</v>
+        <v>0.2331576430156943</v>
       </c>
       <c r="J24">
-        <v>0.04874494402718454</v>
+        <v>0.02386626514929358</v>
       </c>
       <c r="K24">
-        <v>0.3555105791061521</v>
+        <v>1.123652650106749</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4837390846247729</v>
+        <v>0.9041810592648858</v>
       </c>
       <c r="N24">
-        <v>1.504700785726747</v>
+        <v>0.6444052167226069</v>
       </c>
       <c r="O24">
-        <v>2.541742196757596</v>
+        <v>1.261504474333321</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2920627771524664</v>
+        <v>0.8702961867025181</v>
       </c>
       <c r="C25">
-        <v>0.03730705825896052</v>
+        <v>0.122407224902517</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5099062328966539</v>
+        <v>0.5103580257784941</v>
       </c>
       <c r="F25">
-        <v>2.1984211292541</v>
+        <v>1.60225421582382</v>
       </c>
       <c r="G25">
-        <v>0.002436651354954738</v>
+        <v>0.0008023462047614361</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5632741122278517</v>
+        <v>0.2384508567629311</v>
       </c>
       <c r="J25">
-        <v>0.04917298583252894</v>
+        <v>0.02481224732315823</v>
       </c>
       <c r="K25">
-        <v>0.2949071639896772</v>
+        <v>0.9227666724880805</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4418086634435383</v>
+        <v>0.741789580981937</v>
       </c>
       <c r="N25">
-        <v>1.53183392156012</v>
+        <v>0.7081451515315287</v>
       </c>
       <c r="O25">
-        <v>2.566131056362266</v>
+        <v>1.225312983448518</v>
       </c>
     </row>
   </sheetData>
